--- a/ww/great/data/Souce Mapping.xlsx
+++ b/ww/great/data/Souce Mapping.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D2CE30-EF32-4957-A856-F2FD0C69AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work2\learn_python\ww\great\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ABA619-CD4C-41AF-BB73-DF29A5609471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Old Sources Mapped in</t>
   </si>
@@ -49,15 +54,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Hotline</t>
-  </si>
-  <si>
-    <t>CEPT / GCMS</t>
-  </si>
-  <si>
-    <t>Golden Circle Centre</t>
-  </si>
-  <si>
     <t>Verbal/In Person</t>
   </si>
   <si>
@@ -71,39 +67,6 @@
   </si>
   <si>
     <t>Security Log</t>
-  </si>
-  <si>
-    <t>Events Management PM</t>
-  </si>
-  <si>
-    <t>Surveys / Comment Card</t>
-  </si>
-  <si>
-    <t>We value your opinion</t>
-  </si>
-  <si>
-    <t>F&amp;B Comment Card</t>
-  </si>
-  <si>
-    <t>Spa Questionnaire</t>
-  </si>
-  <si>
-    <t>Performance Monitor</t>
-  </si>
-  <si>
-    <t>Performance Research</t>
-  </si>
-  <si>
-    <t>Your VoICE</t>
-  </si>
-  <si>
-    <t>Shangri-La Website</t>
-  </si>
-  <si>
-    <t>Trip Advisor</t>
-  </si>
-  <si>
-    <t>Social Media</t>
   </si>
   <si>
     <t>Others</t>
@@ -113,11 +76,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,13 +98,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,31 +120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEDEDED"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -203,17 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -232,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,19 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -564,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -572,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -580,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -588,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -596,127 +531,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75">
-      <c r="A20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>